--- a/Taylor Series.xlsx
+++ b/Taylor Series.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\GitHub\Taylor-Series\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B26B598-8CEA-41CA-AD00-D4D23C6EE4A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F0B5636-C168-41B1-8CEE-B81317D602A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11510" yWindow="770" windowWidth="13060" windowHeight="9990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -153,10 +153,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ _X_D_R_-;\-* #,##0.00\ _X_D_R_-;_-* &quot;-&quot;??\ _X_D_R_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #,##0.0000\ _X_D_R_-;\-* #,##0.0000\ _X_D_R_-;_-* &quot;-&quot;??\ _X_D_R_-;_-@_-"/>
-    <numFmt numFmtId="181" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ _X_D_R_-;\-* #,##0.00\ _X_D_R_-;_-* &quot;-&quot;??\ _X_D_R_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.0000\ _X_D_R_-;\-* #,##0.0000\ _X_D_R_-;_-* &quot;-&quot;??\ _X_D_R_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -227,16 +227,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -657,8 +657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="55" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" topLeftCell="H7" zoomScale="118" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -972,7 +972,8 @@
         <v>32</v>
       </c>
       <c r="O22" s="12">
-        <v>7.8879999999999999</v>
+        <f>D15</f>
+        <v>7.8837939328776194</v>
       </c>
     </row>
     <row r="23" spans="7:17" x14ac:dyDescent="0.35">
@@ -991,7 +992,7 @@
       </c>
       <c r="O24" s="12">
         <f>O22-O23</f>
-        <v>4.0616734168148483E-3</v>
+        <v>-1.4439370556562636E-4</v>
       </c>
     </row>
     <row r="26" spans="7:17" x14ac:dyDescent="0.35">

--- a/Taylor Series.xlsx
+++ b/Taylor Series.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\GitHub\Taylor-Series\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F0B5636-C168-41B1-8CEE-B81317D602A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6093A0-186F-47D1-979D-1788B589865F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>Stock (S)</t>
   </si>
@@ -118,9 +118,6 @@
   </si>
   <si>
     <t>Change in volatility</t>
-  </si>
-  <si>
-    <t>Estimated new call price:</t>
   </si>
   <si>
     <t>Truncated Taylor Series:</t>
@@ -657,8 +654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H7" zoomScale="118" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView tabSelected="1" zoomScale="67" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -820,7 +817,7 @@
         <v>1</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="18.5" x14ac:dyDescent="0.45">
@@ -834,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
@@ -878,7 +875,7 @@
         <v>2.5533333333333335E-2</v>
       </c>
       <c r="R11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.35">
@@ -933,7 +930,7 @@
         <v>0.51072355754125243</v>
       </c>
       <c r="N14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P14">
         <f>1*P10+1/2*P11*P9^2+P12*P13</f>
@@ -952,24 +949,18 @@
         <f>D2*D12-D3*EXP(-D6*1)*D14</f>
         <v>7.8837939328776194</v>
       </c>
-      <c r="N15" t="s">
-        <v>28</v>
-      </c>
-      <c r="P15">
-        <v>7.8840000000000003</v>
-      </c>
     </row>
     <row r="17" spans="7:17" x14ac:dyDescent="0.35">
       <c r="G17" s="10"/>
     </row>
     <row r="21" spans="7:17" x14ac:dyDescent="0.35">
       <c r="N21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="7:17" x14ac:dyDescent="0.35">
       <c r="N22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O22" s="12">
         <f>D15</f>
@@ -978,7 +969,7 @@
     </row>
     <row r="23" spans="7:17" x14ac:dyDescent="0.35">
       <c r="N23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O23" s="12">
         <f>C15+P14</f>
@@ -988,7 +979,7 @@
     </row>
     <row r="24" spans="7:17" x14ac:dyDescent="0.35">
       <c r="N24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O24" s="12">
         <f>O22-O23</f>

--- a/Taylor Series.xlsx
+++ b/Taylor Series.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\GitHub\Taylor-Series\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\GitHub\Taylor-Series-Approximation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6093A0-186F-47D1-979D-1788B589865F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD70DAF-8CAD-47D8-89D0-7E6B060B5424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6140" yWindow="210" windowWidth="13060" windowHeight="9990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -220,20 +220,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -654,8 +662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="67" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="67" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -669,19 +677,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -689,19 +697,19 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="8">
         <v>50</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="12">
         <v>51</v>
       </c>
       <c r="G2" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="19">
         <v>0.38300000000000001</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="17">
         <v>0.376</v>
       </c>
       <c r="N2" t="s">
@@ -715,20 +723,20 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>50</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="4">
         <v>50</v>
       </c>
       <c r="G3" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="19">
         <f>C12</f>
         <v>0.61153933629473389</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="17">
         <f>D12</f>
         <v>0.63566046967597212</v>
       </c>
@@ -746,17 +754,17 @@
       <c r="C4" s="9">
         <v>0.3</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="13">
         <v>0.32</v>
       </c>
       <c r="G4" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="19">
         <f>I2/(C2*C4*SQRT(C7))</f>
         <v>2.5533333333333335E-2</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="17">
         <f>J2/(D2*D4*SQRT(D7))</f>
         <v>2.3039215686274508E-2</v>
       </c>
@@ -771,20 +779,20 @@
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="10">
         <v>0.09</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="14">
         <v>0.1024</v>
       </c>
       <c r="G5" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="19">
         <f>C2*I2*SQRT(C7)</f>
         <v>19.149999999999999</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="17">
         <f>D2*J2*SQRT(D7)</f>
         <v>19.175999999999998</v>
       </c>
@@ -799,10 +807,10 @@
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="10">
         <v>0.04</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="15">
         <v>0.04</v>
       </c>
     </row>
@@ -810,13 +818,13 @@
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="11">
         <v>1</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="16">
         <v>1</v>
       </c>
-      <c r="N7" s="5" t="s">
+      <c r="N7" s="2" t="s">
         <v>29</v>
       </c>
     </row>
@@ -824,17 +832,19 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="10">
         <v>0</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="15">
         <v>0</v>
       </c>
-      <c r="N8" s="5" t="s">
+      <c r="N8" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="C9" s="3"/>
+      <c r="D9" s="4"/>
       <c r="N9" t="s">
         <v>26</v>
       </c>
@@ -843,14 +853,15 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="4"/>
       <c r="N10" t="s">
         <v>18</v>
       </c>
-      <c r="P10" s="6">
+      <c r="P10" s="19">
         <f>I3</f>
         <v>0.61153933629473389</v>
       </c>
@@ -859,18 +870,18 @@
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="19">
         <f>( LN(C2/C3)+(C6+C5/2)*1)/(C4*SQRT(1))</f>
         <v>0.28333333333333333</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="17">
         <f>( LN(D2/D3)+(D6+D5/2)*1)/(D4*SQRT(1))</f>
         <v>0.34688321030056168</v>
       </c>
       <c r="N11" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="6">
+      <c r="P11" s="19">
         <f>I4</f>
         <v>2.5533333333333335E-2</v>
       </c>
@@ -882,18 +893,18 @@
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="19">
         <f>_xlfn.NORM.S.DIST(C11,TRUE)</f>
         <v>0.61153933629473389</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="17">
         <f>_xlfn.NORM.S.DIST(D11,TRUE)</f>
         <v>0.63566046967597212</v>
       </c>
       <c r="N12" t="s">
         <v>27</v>
       </c>
-      <c r="P12">
+      <c r="P12" s="3">
         <v>0.02</v>
       </c>
     </row>
@@ -901,18 +912,18 @@
       <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="19">
         <f>C11-C4*SQRT(1)</f>
         <v>-1.6666666666666663E-2</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="17">
         <f>D11-D4*SQRT(1)</f>
         <v>2.6883210300561677E-2</v>
       </c>
       <c r="N13" t="s">
         <v>20</v>
       </c>
-      <c r="P13" s="6">
+      <c r="P13" s="19">
         <f>I5</f>
         <v>19.149999999999999</v>
       </c>
@@ -921,11 +932,11 @@
       <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="19">
         <f>_xlfn.NORM.S.DIST(C13,TRUE)</f>
         <v>0.49335126980631744</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="17">
         <f>_xlfn.NORM.S.DIST(D13,TRUE)</f>
         <v>0.51072355754125243</v>
       </c>
@@ -941,17 +952,17 @@
       <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="20">
         <f>C2*C12-C3*EXP(-C6*1)*C14</f>
         <v>6.8766323236217843</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="18">
         <f>D2*D12-D3*EXP(-D6*1)*D14</f>
         <v>7.8837939328776194</v>
       </c>
     </row>
     <row r="17" spans="7:17" x14ac:dyDescent="0.35">
-      <c r="G17" s="10"/>
+      <c r="G17" s="5"/>
     </row>
     <row r="21" spans="7:17" x14ac:dyDescent="0.35">
       <c r="N21" t="s">
@@ -962,7 +973,7 @@
       <c r="N22" t="s">
         <v>31</v>
       </c>
-      <c r="O22" s="12">
+      <c r="O22" s="7">
         <f>D15</f>
         <v>7.8837939328776194</v>
       </c>
@@ -971,23 +982,23 @@
       <c r="N23" t="s">
         <v>32</v>
       </c>
-      <c r="O23" s="12">
+      <c r="O23" s="7">
         <f>C15+P14</f>
         <v>7.8839383265831851</v>
       </c>
-      <c r="Q23" s="11"/>
+      <c r="Q23" s="6"/>
     </row>
     <row r="24" spans="7:17" x14ac:dyDescent="0.35">
       <c r="N24" t="s">
         <v>33</v>
       </c>
-      <c r="O24" s="12">
+      <c r="O24" s="7">
         <f>O22-O23</f>
         <v>-1.4439370556562636E-4</v>
       </c>
     </row>
     <row r="26" spans="7:17" x14ac:dyDescent="0.35">
-      <c r="O26" s="10"/>
+      <c r="O26" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
